--- a/biology/Botanique/Tillandsia_mandonii/Tillandsia_mandonii.xlsx
+++ b/biology/Botanique/Tillandsia_mandonii/Tillandsia_mandonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia mandonii Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 Le terme mandonii est une dédicace au botaniste français Gilbert Mandon (ici latinisé en Mandonius), collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia mandonii E.Morren ex Mez in C.DC., Monogr. Phan. 9: 871, n° 238 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis caulem conspicuum distiche vaginantibus, ad 0,15 m. longis, subteretibus, peracutis ; inflorescentia biflora ; bracteolis sepala aequantibus v. superantibus ; floribus stricte erectis ; sepalis aequaliter fere liberis. »
-Type : Mez[1] cite deux spécimens (syntypes) sans préciser lequel il désigne comme type. Du fait du nom de la plante, il paraît évident qu'il s'agit, dans l’esprit de l’auteur, de celui récolté par Mandon, mais la désignation n'est pas explicite. De plus, Mez cite de multiples herbiers de dépôt (plus que de spécimens) : « Herb. Boiss.-Barbey., Mus. Brit., Candoll., Paris., Petrop., Vindob. » . Ce spécimen a donc fait l’objet d’une lectotypification
+Type : Mez cite deux spécimens (syntypes) sans préciser lequel il désigne comme type. Du fait du nom de la plante, il paraît évident qu'il s'agit, dans l’esprit de l’auteur, de celui récolté par Mandon, mais la désignation n'est pas explicite. De plus, Mez cite de multiples herbiers de dépôt (plus que de spécimens) : « Herb. Boiss.-Barbey., Mus. Brit., Candoll., Paris., Petrop., Vindob. » . Ce spécimen a donc fait l’objet d’une lectotypification
 leg. G. Mandon, n° 1180, 1861-03 ; « Bolivia, inter S. Pedro et Coaconi, alt. 2650 m. » ; Lectotypus BM
 leg. G. Mandon, n° 1180, s.t. ; « Bolivia - prov. Larecaja ad Soratam, alt.: 2650 m, reg. temp. » ; Isolectotypus B (B 10 0247192)
 leg. G. Mandon, n° 1180, 1861-03 ; « Bolivia. Prov. Larecaja. Viciniis Sorata, inter San Pedro et Coaconi, in scopulosis, super arbores. Alt. reg. temp. 2650 m » ; Isolectotypus W (Naturhistorisches Museum Wien) (W 0016895)
@@ -552,10 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia crocata (E.Morren) Baker[2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -580,10 +597,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia crocata (E.Morren) Baker</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,16 +633,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace ; épiphyte[1] ou saxicole[1].
-Habitat : ?
-Altitude : 2650 m[1].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,14 +661,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Bolivie[1],[3]
- Paraguay[1],[3]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace ; épiphyte ou saxicole.
+Habitat : ?
+Altitude : 2650 m.</t>
         </is>
       </c>
     </row>
@@ -670,10 +695,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Bolivie,
+ Paraguay,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_mandonii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_mandonii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
